--- a/ErrorList.xlsx
+++ b/ErrorList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\TabletopDiceMaster\TabletopDiceMaster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1045B583-4419-46A4-96FA-9A74A1171231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{489D9EAE-A50E-4025-9DCB-DBF82BF5B9BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{74097E10-F4AD-4877-AB8C-115080CD2ABD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Bug Fix list</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>save favorites errors on cancel</t>
+  </si>
+  <si>
+    <t>history does not work</t>
+  </si>
+  <si>
+    <t>reroll 1 breaks with no selection</t>
   </si>
 </sst>
 </file>
@@ -395,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A33694-D18A-4362-98D1-B119ABE98223}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +443,16 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
